--- a/Lineage-Files/SQL_LINEAGE.xlsx
+++ b/Lineage-Files/SQL_LINEAGE.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mountanalytics-my.sharepoint.com/personal/jurriaan_groot_mountanalytics_nl/Documents/Bureaublad/NN/Lineage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MátéKaiser\Github\Lineage_trackers\sql-code-parser\Lineage-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{71890AA2-167D-4428-A68F-3AA2E1F87338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E25508B3-F472-43C2-ADF3-68C992B08B6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D1A073-ADDB-4520-86DF-265A3E6C2A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="855" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2E6AC758-1CC8-4CE1-825F-5AF038431A36}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2E6AC758-1CC8-4CE1-825F-5AF038431A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad4" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="378">
   <si>
     <t>ROW_ID</t>
   </si>
@@ -1267,7 +1267,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5624,10 +5624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3FDA18-BDC6-43FB-89D1-25C6B7F2C85D}">
-  <dimension ref="A1:Q270"/>
+  <dimension ref="A1:Q272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L272" sqref="L272"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -20019,6 +20019,94 @@
         <v>345</v>
       </c>
     </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>265</v>
+      </c>
+      <c r="B271" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F271,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H271" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L271,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="I271" s="2" t="str">
+        <f t="shared" ref="I271:I272" si="15">L271&amp;"@"&amp;M271</f>
+        <v>EmployeeTerritories_Extract.csv@EmployeeID</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K271" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L271" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="M271" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>266</v>
+      </c>
+      <c r="B272" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F272,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H272" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L272,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="I272" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>EmployeeTerritories_Extract.csv@TerritoryID</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K272" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L272" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="M272" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20733,6 +20821,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="46be734d-eb4c-4292-a77e-674ed2ee61f1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009BA60A36B45C17479D03F2FE44859793" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8e4c09f5ccef915c6d224c6c7d646e5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="46be734d-eb4c-4292-a77e-674ed2ee61f1" xmlns:ns4="dcd5c2ca-01f0-4956-a351-2c69587d1cb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2125427a8745b353dc952473de6032c2" ns3:_="" ns4:_="">
     <xsd:import namespace="46be734d-eb4c-4292-a77e-674ed2ee61f1"/>
@@ -20965,24 +21070,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD9A43C0-19CE-4F8E-8785-8744C71D4B93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="46be734d-eb4c-4292-a77e-674ed2ee61f1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dcd5c2ca-01f0-4956-a351-2c69587d1cb0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="46be734d-eb4c-4292-a77e-674ed2ee61f1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5542AFC4-889F-4E0B-9549-938C043F49F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17C0049A-33DD-469B-851A-2CCD037E2B05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20999,29 +21112,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5542AFC4-889F-4E0B-9549-938C043F49F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD9A43C0-19CE-4F8E-8785-8744C71D4B93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="46be734d-eb4c-4292-a77e-674ed2ee61f1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dcd5c2ca-01f0-4956-a351-2c69587d1cb0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Lineage-Files/SQL_LINEAGE.xlsx
+++ b/Lineage-Files/SQL_LINEAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MátéKaiser\Github\temporary\sql-code-parser\Lineage-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C96715-D38F-46F3-953B-7E2777BA22D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43763D6D-60EC-4DB1-B5BE-88442E6CAE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{2E6AC758-1CC8-4CE1-825F-5AF038431A36}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7655" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8155" uniqueCount="437">
   <si>
     <t>ROW_ID</t>
   </si>
@@ -1273,6 +1273,93 @@
   <si>
     <t>DWH to Mart</t>
   </si>
+  <si>
+    <t>DIM_Customer</t>
+  </si>
+  <si>
+    <t>DIM_Employee</t>
+  </si>
+  <si>
+    <t>EmpLastName</t>
+  </si>
+  <si>
+    <t>MngLastName</t>
+  </si>
+  <si>
+    <t>FCT_Order</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>TimeID</t>
+  </si>
+  <si>
+    <t>Reference_Time_Dimensions.csv</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>DIM_Time</t>
+  </si>
+  <si>
+    <t>PQ Lineage</t>
+  </si>
+  <si>
+    <t>Latest_Month</t>
+  </si>
+  <si>
+    <t>Latest_Year</t>
+  </si>
+  <si>
+    <t>Latest_Quarter</t>
+  </si>
+  <si>
+    <t>Latest_Date</t>
+  </si>
+  <si>
+    <t>HC_Date_Table</t>
+  </si>
+  <si>
+    <t>Total_Price</t>
+  </si>
+  <si>
+    <t>Average_Price</t>
+  </si>
+  <si>
+    <t>Number_Of_Products</t>
+  </si>
+  <si>
+    <t>Total_Discount_Amount</t>
+  </si>
+  <si>
+    <t>Minimum_Quantity</t>
+  </si>
+  <si>
+    <t>Total_Product_Quantity</t>
+  </si>
+  <si>
+    <t>Total_Order_Price</t>
+  </si>
+  <si>
+    <t>Number_Unique_Customers</t>
+  </si>
+  <si>
+    <t>Number_Orders</t>
+  </si>
 </sst>
 </file>
 
@@ -1302,7 +1389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,6 +1408,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1334,7 +1427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1355,6 +1448,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5714,10 +5808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3FDA18-BDC6-43FB-89D1-25C6B7F2C85D}">
-  <dimension ref="A1:S827"/>
+  <dimension ref="A1:S876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G762" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R801" sqref="R801"/>
+    <sheetView tabSelected="1" topLeftCell="A827" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -19381,7 +19475,7 @@
       <c r="G257" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H257" s="8">
+      <c r="H257" s="2">
         <f>VLOOKUP(SQL_LINEAGE!L257,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>30</v>
       </c>
@@ -30829,7 +30923,7 @@
       <c r="G469" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H469" s="8">
+      <c r="H469" s="2">
         <f>VLOOKUP(SQL_LINEAGE!L469,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>31</v>
       </c>
@@ -38842,7 +38936,7 @@
       <c r="G647" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H647" s="8">
+      <c r="H647" s="2">
         <f>VLOOKUP(SQL_LINEAGE!L647,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>19</v>
       </c>
@@ -40132,7 +40226,7 @@
       </c>
     </row>
     <row r="676" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A676" s="8">
+      <c r="A676" s="2">
         <v>704</v>
       </c>
       <c r="B676" s="8">
@@ -40155,12 +40249,12 @@
       <c r="G676" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="H676" s="8">
+      <c r="H676" s="2">
         <f>VLOOKUP(SQL_LINEAGE!L676,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I676" s="8" t="str">
-        <f t="shared" ref="I676:I697" si="32">L676&amp;"@"&amp;M676</f>
+        <f t="shared" ref="I676:I696" si="32">L676&amp;"@"&amp;M676</f>
         <v>Region_Extract@RegionID</v>
       </c>
       <c r="J676" s="9" t="s">
@@ -40231,7 +40325,7 @@
     </row>
     <row r="678" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A678" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B678" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F678,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40276,7 +40370,7 @@
     </row>
     <row r="679" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A679" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B679" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F679,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40321,7 +40415,7 @@
     </row>
     <row r="680" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A680" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B680" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F680,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40366,7 +40460,7 @@
     </row>
     <row r="681" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A681" s="2">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B681" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F681,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40411,7 +40505,7 @@
     </row>
     <row r="682" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A682" s="2">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B682" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F682,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40456,7 +40550,7 @@
     </row>
     <row r="683" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A683" s="2">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B683" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F683,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40501,7 +40595,7 @@
     </row>
     <row r="684" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A684" s="2">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="B684" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F684,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40546,7 +40640,7 @@
     </row>
     <row r="685" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A685" s="2">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="B685" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F685,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40591,7 +40685,7 @@
     </row>
     <row r="686" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A686" s="2">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="B686" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F686,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40636,7 +40730,7 @@
     </row>
     <row r="687" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A687" s="2">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B687" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F687,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40681,7 +40775,7 @@
     </row>
     <row r="688" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A688" s="2">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="B688" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F688,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40726,7 +40820,7 @@
     </row>
     <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689" s="2">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="B689" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F689,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40771,7 +40865,7 @@
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690" s="2">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="B690" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F690,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40816,7 +40910,7 @@
     </row>
     <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691" s="2">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="B691" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F691,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40861,7 +40955,7 @@
     </row>
     <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692" s="2">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="B692" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F692,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40906,7 +41000,7 @@
     </row>
     <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693" s="2">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="B693" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F693,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40951,7 +41045,7 @@
     </row>
     <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694" s="2">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="B694" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F694,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -40996,7 +41090,7 @@
     </row>
     <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695" s="2">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="B695" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F695,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41041,7 +41135,7 @@
     </row>
     <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696" s="2">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="B696" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F696,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41086,7 +41180,7 @@
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697" s="2">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="B697" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F697,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41131,7 +41225,7 @@
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698" s="2">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="B698" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F698,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41154,7 +41248,7 @@
         <v>56</v>
       </c>
       <c r="H698" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L697,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L698,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I698" s="2" t="str">
@@ -41176,7 +41270,7 @@
     </row>
     <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="B699" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F699,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41199,7 +41293,7 @@
         <v>59</v>
       </c>
       <c r="H699" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L698,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L699,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I699" s="2" t="str">
@@ -41221,7 +41315,7 @@
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700" s="2">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="B700" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F700,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41244,7 +41338,7 @@
         <v>385</v>
       </c>
       <c r="H700" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L699,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L700,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I700" s="2" t="str">
@@ -41266,7 +41360,7 @@
     </row>
     <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701" s="2">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="B701" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F701,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41289,7 +41383,7 @@
         <v>384</v>
       </c>
       <c r="H701" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L700,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L701,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I701" s="2" t="str">
@@ -41311,7 +41405,7 @@
     </row>
     <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702" s="2">
-        <v>705</v>
+        <v>730</v>
       </c>
       <c r="B702" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F702,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41334,7 +41428,7 @@
         <v>384</v>
       </c>
       <c r="H702" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L701,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L702,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I702" s="2" t="str">
@@ -41356,7 +41450,7 @@
     </row>
     <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703" s="2">
-        <v>705</v>
+        <v>731</v>
       </c>
       <c r="B703" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F703,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41379,7 +41473,7 @@
         <v>385</v>
       </c>
       <c r="H703" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L702,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L703,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I703" s="2" t="str">
@@ -41401,7 +41495,7 @@
     </row>
     <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704" s="2">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="B704" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F704,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41424,8 +41518,8 @@
         <v>273</v>
       </c>
       <c r="H704" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L703,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(SQL_LINEAGE!L704,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>27</v>
       </c>
       <c r="I704" s="2" t="str">
         <f t="shared" si="36"/>
@@ -41446,7 +41540,7 @@
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705" s="2">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="B705" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F705,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41469,7 +41563,7 @@
         <v>65</v>
       </c>
       <c r="H705" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L704,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L705,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I705" s="2" t="str">
@@ -41491,7 +41585,7 @@
     </row>
     <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706" s="2">
-        <v>705</v>
+        <v>734</v>
       </c>
       <c r="B706" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F706,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41514,7 +41608,7 @@
         <v>68</v>
       </c>
       <c r="H706" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L705,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L706,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I706" s="2" t="str">
@@ -41536,7 +41630,7 @@
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" s="2">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="B707" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F707,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41559,7 +41653,7 @@
         <v>71</v>
       </c>
       <c r="H707" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L706,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L707,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I707" s="2" t="str">
@@ -41581,7 +41675,7 @@
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" s="2">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="B708" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F708,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41604,7 +41698,7 @@
         <v>74</v>
       </c>
       <c r="H708" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L707,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L708,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I708" s="2" t="str">
@@ -41626,7 +41720,7 @@
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" s="2">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="B709" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F709,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41649,7 +41743,7 @@
         <v>77</v>
       </c>
       <c r="H709" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L708,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L709,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I709" s="2" t="str">
@@ -41671,7 +41765,7 @@
     </row>
     <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" s="2">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="B710" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F710,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41694,7 +41788,7 @@
         <v>24</v>
       </c>
       <c r="H710" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L709,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L710,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I710" s="2" t="str">
@@ -41716,7 +41810,7 @@
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" s="2">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="B711" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F711,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41739,7 +41833,7 @@
         <v>82</v>
       </c>
       <c r="H711" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L710,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L711,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I711" s="2" t="str">
@@ -41761,7 +41855,7 @@
     </row>
     <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" s="2">
-        <v>705</v>
+        <v>740</v>
       </c>
       <c r="B712" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F712,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41784,7 +41878,7 @@
         <v>88</v>
       </c>
       <c r="H712" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L711,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L712,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I712" s="2" t="str">
@@ -41806,7 +41900,7 @@
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" s="2">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="B713" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F713,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41829,7 +41923,7 @@
         <v>91</v>
       </c>
       <c r="H713" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L712,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L713,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I713" s="2" t="str">
@@ -41851,7 +41945,7 @@
     </row>
     <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" s="2">
-        <v>705</v>
+        <v>742</v>
       </c>
       <c r="B714" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F714,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41874,7 +41968,7 @@
         <v>85</v>
       </c>
       <c r="H714" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L713,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L714,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I714" s="2" t="str">
@@ -41896,7 +41990,7 @@
     </row>
     <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" s="2">
-        <v>705</v>
+        <v>743</v>
       </c>
       <c r="B715" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F715,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41919,7 +42013,7 @@
         <v>385</v>
       </c>
       <c r="H715" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L714,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L715,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I715" s="2" t="str">
@@ -41941,7 +42035,7 @@
     </row>
     <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" s="2">
-        <v>705</v>
+        <v>744</v>
       </c>
       <c r="B716" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F716,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -41964,7 +42058,7 @@
         <v>384</v>
       </c>
       <c r="H716" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L715,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L716,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I716" s="2" t="str">
@@ -41986,7 +42080,7 @@
     </row>
     <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" s="2">
-        <v>705</v>
+        <v>745</v>
       </c>
       <c r="B717" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F717,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42009,7 +42103,7 @@
         <v>384</v>
       </c>
       <c r="H717" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L716,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L717,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I717" s="2" t="str">
@@ -42031,7 +42125,7 @@
     </row>
     <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" s="2">
-        <v>705</v>
+        <v>746</v>
       </c>
       <c r="B718" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F718,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42054,7 +42148,7 @@
         <v>385</v>
       </c>
       <c r="H718" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L717,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L718,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I718" s="2" t="str">
@@ -42076,7 +42170,7 @@
     </row>
     <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" s="2">
-        <v>705</v>
+        <v>747</v>
       </c>
       <c r="B719" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F719,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42099,7 +42193,7 @@
         <v>343</v>
       </c>
       <c r="H719" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L718,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L719,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I719" s="2" t="str">
@@ -42121,7 +42215,7 @@
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" s="2">
-        <v>705</v>
+        <v>748</v>
       </c>
       <c r="B720" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F720,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42144,7 +42238,7 @@
         <v>343</v>
       </c>
       <c r="H720" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L719,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L720,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I720" s="2" t="str">
@@ -42166,7 +42260,7 @@
     </row>
     <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721" s="2">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="B721" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F721,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42189,8 +42283,8 @@
         <v>263</v>
       </c>
       <c r="H721" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L720,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>27</v>
+        <f>VLOOKUP(SQL_LINEAGE!L721,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>21</v>
       </c>
       <c r="I721" s="2" t="str">
         <f t="shared" si="36"/>
@@ -42211,7 +42305,7 @@
     </row>
     <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722" s="2">
-        <v>705</v>
+        <v>750</v>
       </c>
       <c r="B722" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F722,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42234,7 +42328,7 @@
         <v>266</v>
       </c>
       <c r="H722" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L721,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L722,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I722" s="2" t="str">
@@ -42256,7 +42350,7 @@
     </row>
     <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723" s="2">
-        <v>705</v>
+        <v>751</v>
       </c>
       <c r="B723" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F723,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42279,7 +42373,7 @@
         <v>53</v>
       </c>
       <c r="H723" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L722,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L723,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I723" s="2" t="str">
@@ -42301,7 +42395,7 @@
     </row>
     <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724" s="2">
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="B724" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F724,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42324,7 +42418,7 @@
         <v>269</v>
       </c>
       <c r="H724" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L723,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L724,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I724" s="2" t="str">
@@ -42346,7 +42440,7 @@
     </row>
     <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725" s="2">
-        <v>705</v>
+        <v>753</v>
       </c>
       <c r="B725" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F725,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42369,7 +42463,7 @@
         <v>279</v>
       </c>
       <c r="H725" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L724,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L725,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I725" s="2" t="str">
@@ -42391,7 +42485,7 @@
     </row>
     <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726" s="2">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="B726" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F726,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42414,7 +42508,7 @@
         <v>282</v>
       </c>
       <c r="H726" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L725,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L726,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I726" s="2" t="str">
@@ -42436,7 +42530,7 @@
     </row>
     <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727" s="2">
-        <v>705</v>
+        <v>755</v>
       </c>
       <c r="B727" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F727,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42459,7 +42553,7 @@
         <v>286</v>
       </c>
       <c r="H727" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L726,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L727,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I727" s="2" t="str">
@@ -42481,7 +42575,7 @@
     </row>
     <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728" s="2">
-        <v>705</v>
+        <v>756</v>
       </c>
       <c r="B728" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F728,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42504,7 +42598,7 @@
         <v>290</v>
       </c>
       <c r="H728" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L727,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L728,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I728" s="2" t="str">
@@ -42526,7 +42620,7 @@
     </row>
     <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729" s="2">
-        <v>705</v>
+        <v>757</v>
       </c>
       <c r="B729" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F729,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42549,7 +42643,7 @@
         <v>293</v>
       </c>
       <c r="H729" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L728,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L729,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I729" s="2" t="str">
@@ -42571,7 +42665,7 @@
     </row>
     <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" s="2">
-        <v>705</v>
+        <v>758</v>
       </c>
       <c r="B730" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F730,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42594,7 +42688,7 @@
         <v>85</v>
       </c>
       <c r="H730" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L729,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L730,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I730" s="2" t="str">
@@ -42616,7 +42710,7 @@
     </row>
     <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731" s="2">
-        <v>705</v>
+        <v>759</v>
       </c>
       <c r="B731" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F731,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42639,7 +42733,7 @@
         <v>273</v>
       </c>
       <c r="H731" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L730,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L731,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I731" s="2" t="str">
@@ -42661,7 +42755,7 @@
     </row>
     <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732" s="2">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="B732" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F732,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42684,7 +42778,7 @@
         <v>269</v>
       </c>
       <c r="H732" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L731,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L732,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I732" s="2" t="str">
@@ -42706,7 +42800,7 @@
     </row>
     <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733" s="2">
-        <v>705</v>
+        <v>761</v>
       </c>
       <c r="B733" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F733,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42729,7 +42823,7 @@
         <v>385</v>
       </c>
       <c r="H733" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L732,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L733,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I733" s="2" t="str">
@@ -42751,7 +42845,7 @@
     </row>
     <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734" s="2">
-        <v>705</v>
+        <v>762</v>
       </c>
       <c r="B734" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F734,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42774,7 +42868,7 @@
         <v>384</v>
       </c>
       <c r="H734" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L733,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L734,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I734" s="2" t="str">
@@ -42796,7 +42890,7 @@
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735" s="2">
-        <v>705</v>
+        <v>763</v>
       </c>
       <c r="B735" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F735,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42819,7 +42913,7 @@
         <v>384</v>
       </c>
       <c r="H735" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L734,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L735,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I735" s="2" t="str">
@@ -42841,7 +42935,7 @@
     </row>
     <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736" s="2">
-        <v>705</v>
+        <v>764</v>
       </c>
       <c r="B736" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F736,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42864,7 +42958,7 @@
         <v>385</v>
       </c>
       <c r="H736" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L735,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L736,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="I736" s="2" t="str">
@@ -42886,7 +42980,7 @@
     </row>
     <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737" s="2">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="B737" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F737,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42909,8 +43003,8 @@
         <v>324</v>
       </c>
       <c r="H737" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L736,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>21</v>
+        <f>VLOOKUP(SQL_LINEAGE!L737,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="I737" s="2" t="str">
         <f t="shared" si="36"/>
@@ -42931,7 +43025,7 @@
     </row>
     <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738" s="2">
-        <v>705</v>
+        <v>766</v>
       </c>
       <c r="B738" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F738,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42954,7 +43048,7 @@
         <v>65</v>
       </c>
       <c r="H738" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L737,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L738,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>25</v>
       </c>
       <c r="I738" s="2" t="str">
@@ -42976,7 +43070,7 @@
     </row>
     <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A739" s="2">
-        <v>705</v>
+        <v>767</v>
       </c>
       <c r="B739" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F739,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -42999,7 +43093,7 @@
         <v>88</v>
       </c>
       <c r="H739" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L738,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L739,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>25</v>
       </c>
       <c r="I739" s="2" t="str">
@@ -43021,7 +43115,7 @@
     </row>
     <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740" s="2">
-        <v>705</v>
+        <v>768</v>
       </c>
       <c r="B740" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F740,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43044,7 +43138,7 @@
         <v>385</v>
       </c>
       <c r="H740" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L739,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L740,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>25</v>
       </c>
       <c r="I740" s="2" t="str">
@@ -43066,7 +43160,7 @@
     </row>
     <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A741" s="2">
-        <v>705</v>
+        <v>769</v>
       </c>
       <c r="B741" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F741,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43089,7 +43183,7 @@
         <v>384</v>
       </c>
       <c r="H741" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L740,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L741,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>25</v>
       </c>
       <c r="I741" s="2" t="str">
@@ -43111,7 +43205,7 @@
     </row>
     <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742" s="2">
-        <v>705</v>
+        <v>770</v>
       </c>
       <c r="B742" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F742,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43134,7 +43228,7 @@
         <v>384</v>
       </c>
       <c r="H742" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L741,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L742,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>25</v>
       </c>
       <c r="I742" s="2" t="str">
@@ -43156,7 +43250,7 @@
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743" s="2">
-        <v>705</v>
+        <v>771</v>
       </c>
       <c r="B743" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F743,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43179,7 +43273,7 @@
         <v>385</v>
       </c>
       <c r="H743" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L742,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L743,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>25</v>
       </c>
       <c r="I743" s="2" t="str">
@@ -43201,7 +43295,7 @@
     </row>
     <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A744" s="2">
-        <v>705</v>
+        <v>772</v>
       </c>
       <c r="B744" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F744,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43224,8 +43318,8 @@
         <v>62</v>
       </c>
       <c r="H744" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L743,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(SQL_LINEAGE!L744,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
       </c>
       <c r="I744" s="2" t="str">
         <f t="shared" si="36"/>
@@ -43246,7 +43340,7 @@
     </row>
     <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745" s="2">
-        <v>705</v>
+        <v>773</v>
       </c>
       <c r="B745" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F745,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43269,7 +43363,7 @@
         <v>65</v>
       </c>
       <c r="H745" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L744,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L745,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I745" s="2" t="str">
@@ -43291,7 +43385,7 @@
     </row>
     <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746" s="2">
-        <v>705</v>
+        <v>774</v>
       </c>
       <c r="B746" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F746,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43314,7 +43408,7 @@
         <v>68</v>
       </c>
       <c r="H746" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L745,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L746,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I746" s="2" t="str">
@@ -43336,7 +43430,7 @@
     </row>
     <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747" s="2">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="B747" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F747,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43359,7 +43453,7 @@
         <v>71</v>
       </c>
       <c r="H747" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L746,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L747,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I747" s="2" t="str">
@@ -43381,7 +43475,7 @@
     </row>
     <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A748" s="2">
-        <v>705</v>
+        <v>776</v>
       </c>
       <c r="B748" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F748,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43404,7 +43498,7 @@
         <v>74</v>
       </c>
       <c r="H748" s="2">
-        <f>VLOOKUP(SQL_LINEAGE!L747,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <f>VLOOKUP(SQL_LINEAGE!L748,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I748" s="2" t="str">
@@ -43426,7 +43520,7 @@
     </row>
     <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749" s="2">
-        <v>705</v>
+        <v>777</v>
       </c>
       <c r="B749" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F749,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43448,6 +43542,10 @@
       <c r="G749" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="H749" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L749,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I749" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Customers_Extract@City</v>
@@ -43467,7 +43565,7 @@
     </row>
     <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750" s="2">
-        <v>705</v>
+        <v>778</v>
       </c>
       <c r="B750" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F750,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43489,6 +43587,10 @@
       <c r="G750" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H750" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L750,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I750" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Customers_Extract@Region</v>
@@ -43508,14 +43610,14 @@
     </row>
     <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751" s="2">
-        <v>705</v>
+        <v>779</v>
       </c>
       <c r="B751" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F751,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="C751" s="2" t="str">
-        <f t="shared" ref="C751:C814" si="37">F751&amp;"@"&amp;G751</f>
+        <f t="shared" ref="C751:C811" si="37">F751&amp;"@"&amp;G751</f>
         <v>Customers_Extract.csv@PostalCode</v>
       </c>
       <c r="D751" s="1" t="s">
@@ -43529,6 +43631,10 @@
       </c>
       <c r="G751" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="H751" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L751,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
       </c>
       <c r="I751" s="2" t="str">
         <f t="shared" si="36"/>
@@ -43549,7 +43655,7 @@
     </row>
     <row r="752" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A752" s="2">
-        <v>705</v>
+        <v>780</v>
       </c>
       <c r="B752" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F752,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43571,6 +43677,10 @@
       <c r="G752" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="H752" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L752,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I752" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Customers_Extract@Country</v>
@@ -43590,7 +43700,7 @@
     </row>
     <row r="753" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A753" s="2">
-        <v>705</v>
+        <v>781</v>
       </c>
       <c r="B753" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F753,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43612,6 +43722,10 @@
       <c r="G753" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="H753" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L753,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I753" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Customers_Extract@Phone</v>
@@ -43631,7 +43745,7 @@
     </row>
     <row r="754" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A754" s="2">
-        <v>705</v>
+        <v>782</v>
       </c>
       <c r="B754" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F754,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43653,6 +43767,10 @@
       <c r="G754" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="H754" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L754,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I754" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Customers_Extract@Fax</v>
@@ -43672,7 +43790,7 @@
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A755" s="2">
-        <v>705</v>
+        <v>783</v>
       </c>
       <c r="B755" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F755,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43694,6 +43812,10 @@
       <c r="G755" s="2" t="s">
         <v>385</v>
       </c>
+      <c r="H755" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L755,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I755" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Customers_Extract@Active</v>
@@ -43713,7 +43835,7 @@
     </row>
     <row r="756" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A756" s="2">
-        <v>705</v>
+        <v>784</v>
       </c>
       <c r="B756" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F756,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43735,6 +43857,10 @@
       <c r="G756" s="2" t="s">
         <v>384</v>
       </c>
+      <c r="H756" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L756,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I756" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Customers_Extract@Active</v>
@@ -43754,7 +43880,7 @@
     </row>
     <row r="757" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A757" s="2">
-        <v>705</v>
+        <v>785</v>
       </c>
       <c r="B757" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F757,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43776,6 +43902,10 @@
       <c r="G757" s="2" t="s">
         <v>384</v>
       </c>
+      <c r="H757" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L757,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I757" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Customers_Extract@ValidTo</v>
@@ -43795,7 +43925,7 @@
     </row>
     <row r="758" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A758" s="2">
-        <v>705</v>
+        <v>786</v>
       </c>
       <c r="B758" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F758,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43817,6 +43947,10 @@
       <c r="G758" s="2" t="s">
         <v>385</v>
       </c>
+      <c r="H758" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L758,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I758" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Customers_Extract@ValidFrom</v>
@@ -43836,7 +43970,7 @@
     </row>
     <row r="759" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A759" s="2">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="B759" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F759,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43858,6 +43992,10 @@
       <c r="G759" s="2" t="s">
         <v>398</v>
       </c>
+      <c r="H759" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L759,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I759" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Customers_Extract@Global_CustomerID</v>
@@ -43877,7 +44015,7 @@
     </row>
     <row r="760" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A760" s="2">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="B760" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F760,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43899,6 +44037,10 @@
       <c r="G760" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="H760" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L760,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I760" s="2" t="str">
         <f t="shared" si="36"/>
         <v>Employees_Extract@EmployeeID</v>
@@ -43918,7 +44060,7 @@
     </row>
     <row r="761" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A761" s="2">
-        <v>705</v>
+        <v>789</v>
       </c>
       <c r="B761" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F761,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43940,8 +44082,12 @@
       <c r="G761" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="H761" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L761,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I761" s="2" t="str">
-        <f t="shared" ref="I761:I819" si="38">L761&amp;"@"&amp;M761</f>
+        <f t="shared" ref="I761:I824" si="38">L761&amp;"@"&amp;M761</f>
         <v>Employees_Extract@LastName</v>
       </c>
       <c r="J761" s="1" t="s">
@@ -43959,7 +44105,7 @@
     </row>
     <row r="762" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A762" s="2">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="B762" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F762,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -43981,6 +44127,10 @@
       <c r="G762" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="H762" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L762,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I762" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@FirstName</v>
@@ -44000,7 +44150,7 @@
     </row>
     <row r="763" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A763" s="2">
-        <v>705</v>
+        <v>791</v>
       </c>
       <c r="B763" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F763,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44022,6 +44172,10 @@
       <c r="G763" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="H763" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L763,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I763" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@Title</v>
@@ -44041,7 +44195,7 @@
     </row>
     <row r="764" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A764" s="2">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="B764" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F764,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44063,6 +44217,10 @@
       <c r="G764" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="H764" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L764,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I764" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@TitleOfCourtesy</v>
@@ -44082,7 +44240,7 @@
     </row>
     <row r="765" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A765" s="2">
-        <v>705</v>
+        <v>793</v>
       </c>
       <c r="B765" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F765,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44104,6 +44262,10 @@
       <c r="G765" s="2" t="s">
         <v>381</v>
       </c>
+      <c r="H765" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L765,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I765" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@BirthDate_DT</v>
@@ -44123,7 +44285,7 @@
     </row>
     <row r="766" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A766" s="2">
-        <v>705</v>
+        <v>794</v>
       </c>
       <c r="B766" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F766,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44145,6 +44307,10 @@
       <c r="G766" s="2" t="s">
         <v>382</v>
       </c>
+      <c r="H766" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L766,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I766" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@HireDate_DT</v>
@@ -44164,7 +44330,7 @@
     </row>
     <row r="767" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A767" s="2">
-        <v>705</v>
+        <v>795</v>
       </c>
       <c r="B767" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F767,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44186,6 +44352,10 @@
       <c r="G767" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="H767" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L767,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I767" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@Address</v>
@@ -44205,7 +44375,7 @@
     </row>
     <row r="768" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A768" s="2">
-        <v>705</v>
+        <v>796</v>
       </c>
       <c r="B768" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F768,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44227,6 +44397,10 @@
       <c r="G768" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="H768" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L768,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I768" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@City</v>
@@ -44246,7 +44420,7 @@
     </row>
     <row r="769" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A769" s="2">
-        <v>705</v>
+        <v>797</v>
       </c>
       <c r="B769" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F769,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44268,6 +44442,10 @@
       <c r="G769" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H769" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L769,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I769" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@Region</v>
@@ -44287,7 +44465,7 @@
     </row>
     <row r="770" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A770" s="2">
-        <v>705</v>
+        <v>798</v>
       </c>
       <c r="B770" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F770,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44309,6 +44487,10 @@
       <c r="G770" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="H770" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L770,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I770" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@PostalCode</v>
@@ -44328,7 +44510,7 @@
     </row>
     <row r="771" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A771" s="2">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="B771" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F771,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44350,6 +44532,10 @@
       <c r="G771" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="H771" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L771,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I771" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@Country</v>
@@ -44369,7 +44555,7 @@
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A772" s="2">
-        <v>705</v>
+        <v>800</v>
       </c>
       <c r="B772" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F772,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44391,6 +44577,10 @@
       <c r="G772" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="H772" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L772,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I772" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@HomePhone</v>
@@ -44410,7 +44600,7 @@
     </row>
     <row r="773" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A773" s="2">
-        <v>705</v>
+        <v>801</v>
       </c>
       <c r="B773" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F773,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44432,6 +44622,10 @@
       <c r="G773" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="H773" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L773,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I773" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@Extension</v>
@@ -44451,7 +44645,7 @@
     </row>
     <row r="774" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A774" s="2">
-        <v>705</v>
+        <v>802</v>
       </c>
       <c r="B774" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F774,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44473,6 +44667,10 @@
       <c r="G774" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="H774" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L774,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I774" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@ReportsTo</v>
@@ -44492,7 +44690,7 @@
     </row>
     <row r="775" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A775" s="2">
-        <v>705</v>
+        <v>803</v>
       </c>
       <c r="B775" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F775,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44514,6 +44712,10 @@
       <c r="G775" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="H775" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L775,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I775" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@Name</v>
@@ -44533,7 +44735,7 @@
     </row>
     <row r="776" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A776" s="2">
-        <v>705</v>
+        <v>804</v>
       </c>
       <c r="B776" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F776,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44555,6 +44757,10 @@
       <c r="G776" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="H776" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L776,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I776" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@Name</v>
@@ -44574,7 +44780,7 @@
     </row>
     <row r="777" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A777" s="2">
-        <v>705</v>
+        <v>805</v>
       </c>
       <c r="B777" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F777,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44596,6 +44802,10 @@
       <c r="G777" s="2" t="s">
         <v>382</v>
       </c>
+      <c r="H777" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L777,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I777" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@ValidFrom</v>
@@ -44615,7 +44825,7 @@
     </row>
     <row r="778" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A778" s="2">
-        <v>705</v>
+        <v>806</v>
       </c>
       <c r="B778" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F778,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44637,6 +44847,10 @@
       <c r="G778" s="2" t="s">
         <v>382</v>
       </c>
+      <c r="H778" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L778,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>6</v>
+      </c>
       <c r="I778" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Employees_Extract@Active</v>
@@ -44656,7 +44870,7 @@
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A779" s="2">
-        <v>705</v>
+        <v>807</v>
       </c>
       <c r="B779" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F779,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44678,6 +44892,10 @@
       <c r="G779" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="H779" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L779,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>11</v>
+      </c>
       <c r="I779" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Order_Details_Extract@OrderDate_DT</v>
@@ -44697,7 +44915,7 @@
     </row>
     <row r="780" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A780" s="2">
-        <v>705</v>
+        <v>808</v>
       </c>
       <c r="B780" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F780,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44719,6 +44937,10 @@
       <c r="G780" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="H780" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L780,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>11</v>
+      </c>
       <c r="I780" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Order_Details_Extract@Active</v>
@@ -44738,7 +44960,7 @@
     </row>
     <row r="781" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A781" s="2">
-        <v>705</v>
+        <v>809</v>
       </c>
       <c r="B781" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F781,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44760,6 +44982,10 @@
       <c r="G781" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="H781" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L781,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>11</v>
+      </c>
       <c r="I781" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Order_Details_Extract@Active</v>
@@ -44779,7 +45005,7 @@
     </row>
     <row r="782" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A782" s="2">
-        <v>705</v>
+        <v>810</v>
       </c>
       <c r="B782" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F782,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44801,6 +45027,10 @@
       <c r="G782" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="H782" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L782,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I782" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@OrderID</v>
@@ -44820,7 +45050,7 @@
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A783" s="2">
-        <v>705</v>
+        <v>811</v>
       </c>
       <c r="B783" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F783,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44842,6 +45072,10 @@
       <c r="G783" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="H783" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L783,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I783" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@CustomerID</v>
@@ -44861,7 +45095,7 @@
     </row>
     <row r="784" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A784" s="2">
-        <v>705</v>
+        <v>812</v>
       </c>
       <c r="B784" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F784,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44883,6 +45117,10 @@
       <c r="G784" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="H784" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L784,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I784" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@EmployeeID</v>
@@ -44902,7 +45140,7 @@
     </row>
     <row r="785" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A785" s="2">
-        <v>705</v>
+        <v>813</v>
       </c>
       <c r="B785" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F785,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44924,6 +45162,10 @@
       <c r="G785" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="H785" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L785,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I785" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@OrderDate_DT</v>
@@ -44943,7 +45185,7 @@
     </row>
     <row r="786" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A786" s="2">
-        <v>705</v>
+        <v>814</v>
       </c>
       <c r="B786" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F786,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -44965,6 +45207,10 @@
       <c r="G786" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="H786" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L786,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I786" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@RequiredDate_DT</v>
@@ -44984,7 +45230,7 @@
     </row>
     <row r="787" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A787" s="2">
-        <v>705</v>
+        <v>815</v>
       </c>
       <c r="B787" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F787,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45006,6 +45252,10 @@
       <c r="G787" s="2" t="s">
         <v>380</v>
       </c>
+      <c r="H787" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L787,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I787" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@ShippedDate_DT</v>
@@ -45025,7 +45275,7 @@
     </row>
     <row r="788" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A788" s="2">
-        <v>705</v>
+        <v>816</v>
       </c>
       <c r="B788" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F788,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45047,6 +45297,10 @@
       <c r="G788" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="H788" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L788,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I788" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@ShipVia</v>
@@ -45066,7 +45320,7 @@
     </row>
     <row r="789" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A789" s="2">
-        <v>705</v>
+        <v>817</v>
       </c>
       <c r="B789" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F789,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45088,6 +45342,10 @@
       <c r="G789" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="H789" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L789,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I789" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@Freight</v>
@@ -45107,7 +45365,7 @@
     </row>
     <row r="790" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A790" s="2">
-        <v>705</v>
+        <v>818</v>
       </c>
       <c r="B790" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F790,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45129,6 +45387,10 @@
       <c r="G790" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="H790" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L790,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I790" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@ShipName</v>
@@ -45148,7 +45410,7 @@
     </row>
     <row r="791" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A791" s="2">
-        <v>705</v>
+        <v>819</v>
       </c>
       <c r="B791" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F791,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45170,6 +45432,10 @@
       <c r="G791" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="H791" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L791,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I791" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@ShipAddress</v>
@@ -45189,7 +45455,7 @@
     </row>
     <row r="792" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A792" s="2">
-        <v>705</v>
+        <v>820</v>
       </c>
       <c r="B792" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F792,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45211,6 +45477,10 @@
       <c r="G792" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="H792" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L792,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I792" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@ShipCity</v>
@@ -45230,7 +45500,7 @@
     </row>
     <row r="793" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A793" s="2">
-        <v>705</v>
+        <v>821</v>
       </c>
       <c r="B793" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F793,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45252,6 +45522,10 @@
       <c r="G793" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="H793" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L793,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I793" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@ShipRegion</v>
@@ -45271,7 +45545,7 @@
     </row>
     <row r="794" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A794" s="2">
-        <v>705</v>
+        <v>822</v>
       </c>
       <c r="B794" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F794,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45293,6 +45567,10 @@
       <c r="G794" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="H794" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L794,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I794" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@ShipPostalCode</v>
@@ -45312,7 +45590,7 @@
     </row>
     <row r="795" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A795" s="2">
-        <v>705</v>
+        <v>823</v>
       </c>
       <c r="B795" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F795,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45334,6 +45612,10 @@
       <c r="G795" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="H795" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L795,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I795" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@ShipCountry</v>
@@ -45353,7 +45635,7 @@
     </row>
     <row r="796" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A796" s="2">
-        <v>705</v>
+        <v>824</v>
       </c>
       <c r="B796" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F796,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45375,6 +45657,10 @@
       <c r="G796" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="H796" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L796,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I796" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@ValidFrom</v>
@@ -45394,7 +45680,7 @@
     </row>
     <row r="797" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A797" s="2">
-        <v>705</v>
+        <v>825</v>
       </c>
       <c r="B797" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F797,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45416,6 +45702,10 @@
       <c r="G797" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="H797" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L797,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I797" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@ValidTo</v>
@@ -45435,7 +45725,7 @@
     </row>
     <row r="798" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A798" s="2">
-        <v>705</v>
+        <v>826</v>
       </c>
       <c r="B798" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F798,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45457,6 +45747,10 @@
       <c r="G798" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="H798" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L798,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I798" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@Active</v>
@@ -45476,7 +45770,7 @@
     </row>
     <row r="799" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A799" s="2">
-        <v>705</v>
+        <v>827</v>
       </c>
       <c r="B799" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F799,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
@@ -45498,6 +45792,10 @@
       <c r="G799" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="H799" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L799,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="I799" s="2" t="str">
         <f t="shared" si="38"/>
         <v>Orders_Extract@Active</v>
@@ -45516,7 +45814,9 @@
       </c>
     </row>
     <row r="800" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A800" s="8"/>
+      <c r="A800" s="2">
+        <v>828</v>
+      </c>
       <c r="B800" s="8">
         <f>VLOOKUP(SQL_LINEAGE!F800,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
@@ -45525,10 +45825,10 @@
         <f t="shared" si="37"/>
         <v>Suppliers_Extract@CompanyName</v>
       </c>
-      <c r="D800" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E800" s="1" t="s">
+      <c r="D800" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E800" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F800" s="8" t="s">
@@ -45537,15 +45837,18 @@
       <c r="G800" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H800" s="8"/>
+      <c r="H800" s="8">
+        <f>VLOOKUP(SQL_LINEAGE!L800,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>55</v>
+      </c>
       <c r="I800" s="8" t="str">
         <f t="shared" si="38"/>
         <v>DIM_Supplier@CompanyName</v>
       </c>
-      <c r="J800" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K800" s="1" t="s">
+      <c r="J800" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K800" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L800" s="8" t="s">
@@ -45559,7 +45862,10 @@
         <v>407</v>
       </c>
     </row>
-    <row r="801" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A801" s="2">
+        <v>829</v>
+      </c>
       <c r="B801" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F801,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
@@ -45580,6 +45886,10 @@
       <c r="G801" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="H801" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L801,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>55</v>
+      </c>
       <c r="I801" s="2" t="str">
         <f t="shared" si="38"/>
         <v>DIM_Supplier@Country</v>
@@ -45597,7 +45907,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="802" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A802" s="2">
+        <v>830</v>
+      </c>
       <c r="B802" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F802,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>27</v>
@@ -45618,6 +45931,10 @@
       <c r="G802" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="H802" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L802,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>55</v>
+      </c>
       <c r="I802" s="2" t="str">
         <f t="shared" si="38"/>
         <v>DIM_Supplier@SupplierID</v>
@@ -45635,7 +45952,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="803" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A803" s="2">
+        <v>831</v>
+      </c>
       <c r="B803" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F803,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
@@ -45656,6 +45976,10 @@
       <c r="G803" s="2" t="s">
         <v>263</v>
       </c>
+      <c r="H803" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L803,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>56</v>
+      </c>
       <c r="I803" s="2" t="str">
         <f t="shared" si="38"/>
         <v>DIM_Product@ProductID</v>
@@ -45673,7 +45997,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="804" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A804" s="2">
+        <v>832</v>
+      </c>
       <c r="B804" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F804,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>21</v>
@@ -45694,6 +46021,10 @@
       <c r="G804" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="H804" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L804,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>56</v>
+      </c>
       <c r="I804" s="2" t="str">
         <f t="shared" si="38"/>
         <v>DIM_Product@ProductName</v>
@@ -45711,7 +46042,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="805" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A805" s="2">
+        <v>833</v>
+      </c>
       <c r="B805" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F805,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
         <v>2</v>
@@ -45732,6 +46066,10 @@
       <c r="G805" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="H805" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L805,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>56</v>
+      </c>
       <c r="I805" s="2" t="str">
         <f t="shared" si="38"/>
         <v>DIM_Product@ProductCategory</v>
@@ -45749,24 +46087,37 @@
         <v>402</v>
       </c>
     </row>
-    <row r="806" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B806" s="2" t="e">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A806" s="2">
+        <v>834</v>
+      </c>
+      <c r="B806" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F806,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="C806" s="2" t="str">
         <f t="shared" si="37"/>
-        <v>@</v>
+        <v>Customers_Extract@CompanyName</v>
       </c>
       <c r="D806" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E806" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F806" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G806" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H806" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L806,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
       </c>
       <c r="I806" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>DIM_Customer@CompanyName</v>
       </c>
       <c r="J806" s="1" t="s">
         <v>10</v>
@@ -45774,25 +46125,44 @@
       <c r="K806" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="807" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B807" s="2" t="e">
+      <c r="L806" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M806" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A807" s="2">
+        <v>835</v>
+      </c>
+      <c r="B807" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F807,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="C807" s="2" t="str">
         <f t="shared" si="37"/>
-        <v>@</v>
+        <v>Customers_Extract@Country</v>
       </c>
       <c r="D807" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E807" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F807" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G807" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H807" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L807,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
       </c>
       <c r="I807" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>DIM_Customer@Country</v>
       </c>
       <c r="J807" s="1" t="s">
         <v>10</v>
@@ -45800,25 +46170,44 @@
       <c r="K807" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="808" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B808" s="2" t="e">
+      <c r="L807" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M807" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A808" s="2">
+        <v>836</v>
+      </c>
+      <c r="B808" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F808,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="C808" s="2" t="str">
         <f t="shared" si="37"/>
-        <v>@</v>
+        <v>Customers_Extract@City</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E808" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F808" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G808" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H808" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L808,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
       </c>
       <c r="I808" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>DIM_Customer@City</v>
       </c>
       <c r="J808" s="1" t="s">
         <v>10</v>
@@ -45826,25 +46215,44 @@
       <c r="K808" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="809" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B809" s="2" t="e">
+      <c r="L808" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M808" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A809" s="2">
+        <v>837</v>
+      </c>
+      <c r="B809" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F809,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="C809" s="2" t="str">
         <f t="shared" si="37"/>
-        <v>@</v>
+        <v>Customers_Extract@Global_CustomerID</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E809" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F809" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G809" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H809" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L809,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
       </c>
       <c r="I809" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>DIM_Customer@CustomerID</v>
       </c>
       <c r="J809" s="1" t="s">
         <v>10</v>
@@ -45852,25 +46260,44 @@
       <c r="K809" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="810" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B810" s="2" t="e">
+      <c r="L809" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M809" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A810" s="2">
+        <v>838</v>
+      </c>
+      <c r="B810" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F810,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="C810" s="2" t="str">
         <f t="shared" si="37"/>
-        <v>@</v>
+        <v>Employees_Extract@EmployeeID</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E810" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F810" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G810" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H810" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L810,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
       </c>
       <c r="I810" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>DIM_Employee@EmployeeID</v>
       </c>
       <c r="J810" s="1" t="s">
         <v>10</v>
@@ -45878,25 +46305,44 @@
       <c r="K810" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="811" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B811" s="2" t="e">
+      <c r="L810" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M810" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A811" s="2">
+        <v>839</v>
+      </c>
+      <c r="B811" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F811,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="C811" s="2" t="str">
-        <f t="shared" si="37"/>
-        <v>@</v>
+        <f t="shared" ref="C811:C835" si="39">F811&amp;"@"&amp;G811</f>
+        <v>Employees_Extract@LastName</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E811" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F811" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G811" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H811" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L811,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
       </c>
       <c r="I811" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>DIM_Employee@EmpLastName</v>
       </c>
       <c r="J811" s="1" t="s">
         <v>10</v>
@@ -45904,25 +46350,44 @@
       <c r="K811" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="812" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B812" s="2" t="e">
+      <c r="L811" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M811" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A812" s="2">
+        <v>840</v>
+      </c>
+      <c r="B812" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F812,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="C812" s="2" t="str">
-        <f t="shared" si="37"/>
-        <v>@</v>
+        <f t="shared" si="39"/>
+        <v>Employees_Extract@LastName</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E812" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F812" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G812" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H812" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L812,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
       </c>
       <c r="I812" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>DIM_Employee@MngLastName</v>
       </c>
       <c r="J812" s="1" t="s">
         <v>10</v>
@@ -45930,25 +46395,44 @@
       <c r="K812" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="813" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B813" s="2" t="e">
+      <c r="L812" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M812" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A813" s="2">
+        <v>841</v>
+      </c>
+      <c r="B813" s="2">
         <f>VLOOKUP(SQL_LINEAGE!F813,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="C813" s="2" t="str">
-        <f t="shared" si="37"/>
-        <v>@</v>
+        <f t="shared" si="39"/>
+        <v>Order_Details_Extract@UnitPrice</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E813" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F813" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G813" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H813" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L813,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
       </c>
       <c r="I813" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>FCT_Order@Price</v>
       </c>
       <c r="J813" s="1" t="s">
         <v>10</v>
@@ -45956,21 +46440,44 @@
       <c r="K813" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="814" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L813" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M813" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A814" s="2">
+        <v>842</v>
+      </c>
+      <c r="B814" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F814,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>11</v>
+      </c>
       <c r="C814" s="2" t="str">
-        <f t="shared" si="37"/>
-        <v>@</v>
+        <f t="shared" si="39"/>
+        <v>Order_Details_Extract@Quantity</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E814" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F814" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G814" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H814" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L814,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
       </c>
       <c r="I814" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>FCT_Order@Quantity</v>
       </c>
       <c r="J814" s="1" t="s">
         <v>10</v>
@@ -45978,21 +46485,44 @@
       <c r="K814" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="815" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L814" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M814" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A815" s="2">
+        <v>843</v>
+      </c>
+      <c r="B815" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F815,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>11</v>
+      </c>
       <c r="C815" s="2" t="str">
-        <f t="shared" ref="C815:C818" si="39">F815&amp;"@"&amp;G815</f>
-        <v>@</v>
+        <f t="shared" si="39"/>
+        <v>Order_Details_Extract@Discount</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E815" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F815" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G815" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H815" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L815,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
       </c>
       <c r="I815" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>FCT_Order@Discount</v>
       </c>
       <c r="J815" s="1" t="s">
         <v>10</v>
@@ -46000,21 +46530,44 @@
       <c r="K815" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="816" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L815" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M815" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A816" s="2">
+        <v>844</v>
+      </c>
+      <c r="B816" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F816,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="C816" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>@</v>
+        <v>Orders_Extract@OrderID</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E816" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F816" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G816" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H816" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L816,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
       </c>
       <c r="I816" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>FCT_Order@OrderID</v>
       </c>
       <c r="J816" s="1" t="s">
         <v>10</v>
@@ -46022,21 +46575,44 @@
       <c r="K816" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="817" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L816" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M816" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="817" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A817" s="2">
+        <v>845</v>
+      </c>
+      <c r="B817" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F817,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="C817" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>@</v>
+        <v>Orders_Extract@EmployeeID</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E817" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F817" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G817" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H817" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L817,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
       </c>
       <c r="I817" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>FCT_Order@EmployeeID</v>
       </c>
       <c r="J817" s="1" t="s">
         <v>10</v>
@@ -46044,21 +46620,44 @@
       <c r="K817" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="818" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L817" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M817" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="818" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A818" s="2">
+        <v>846</v>
+      </c>
+      <c r="B818" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F818,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>54</v>
+      </c>
       <c r="C818" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>@</v>
+        <v>Reference_Time_Dimensions.csv@TimeID</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E818" s="1" t="s">
-        <v>11</v>
+        <v>359</v>
+      </c>
+      <c r="E818" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F818" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G818" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H818" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L818,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
       </c>
       <c r="I818" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>FCT_Order@TimeID</v>
       </c>
       <c r="J818" s="1" t="s">
         <v>10</v>
@@ -46066,17 +46665,44 @@
       <c r="K818" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="819" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L818" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M818" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="819" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A819" s="2">
+        <v>847</v>
+      </c>
+      <c r="B819" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F819,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="C819" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>Products_Extract@SupplierID</v>
+      </c>
       <c r="D819" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E819" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F819" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G819" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H819" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L819,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
       </c>
       <c r="I819" s="2" t="str">
         <f t="shared" si="38"/>
-        <v>@</v>
+        <v>FCT_Order@SupplierID</v>
       </c>
       <c r="J819" s="1" t="s">
         <v>10</v>
@@ -46084,87 +46710,2404 @@
       <c r="K819" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="820" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L819" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M819" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="820" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A820" s="2">
+        <v>848</v>
+      </c>
+      <c r="B820" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F820,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="C820" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>Customers_Extract@Global_CustomerID</v>
+      </c>
       <c r="D820" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E820" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F820" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G820" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H820" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L820,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I820" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>FCT_Order@CustomerID</v>
+      </c>
       <c r="J820" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K820" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="821" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L820" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M820" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="821" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A821" s="2">
+        <v>849</v>
+      </c>
+      <c r="B821" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F821,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="C821" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>Reference_Time_Dimensions.csv@TimeID</v>
+      </c>
       <c r="D821" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E821" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F821" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G821" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H821" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L821,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I821" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>DIM_Time@TimeID</v>
+      </c>
       <c r="J821" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K821" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="822" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L821" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M821" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="822" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A822" s="2">
+        <v>850</v>
+      </c>
+      <c r="B822" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F822,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="C822" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>Reference_Time_Dimensions.csv@Date</v>
+      </c>
       <c r="D822" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E822" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F822" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G822" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H822" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L822,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I822" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>DIM_Time@Date</v>
+      </c>
       <c r="J822" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K822" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="823" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L822" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M822" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="823" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A823" s="2">
+        <v>851</v>
+      </c>
+      <c r="B823" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F823,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="C823" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>Reference_Time_Dimensions.csv@Year</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F823" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G823" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H823" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L823,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I823" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>DIM_Time@Year</v>
+      </c>
       <c r="J823" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K823" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="824" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L823" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M823" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="824" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A824" s="2">
+        <v>852</v>
+      </c>
+      <c r="B824" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F824,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="C824" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>Reference_Time_Dimensions.csv@Quarter</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F824" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G824" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H824" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L824,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I824" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>DIM_Time@Quarter</v>
+      </c>
       <c r="J824" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K824" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="825" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L824" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M824" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="825" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A825" s="2">
+        <v>853</v>
+      </c>
+      <c r="B825" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F825,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="C825" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>Reference_Time_Dimensions.csv@Month</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F825" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G825" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H825" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L825,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I825" s="2" t="str">
+        <f t="shared" ref="I825:I836" si="40">L825&amp;"@"&amp;M825</f>
+        <v>DIM_Time@Month</v>
+      </c>
       <c r="J825" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K825" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="826" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L825" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M825" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="826" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A826" s="2">
+        <v>854</v>
+      </c>
+      <c r="B826" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F826,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="C826" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>Reference_Time_Dimensions.csv@Day</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F826" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G826" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H826" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L826,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I826" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Time@Day</v>
+      </c>
       <c r="J826" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K826" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="827" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J827" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K827" s="1" t="s">
-        <v>11</v>
+      <c r="L826" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M826" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="827" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A827" s="8"/>
+      <c r="B827" s="8">
+        <f>VLOOKUP(SQL_LINEAGE!F827,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="C827" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>DIM_Employee@EmployeeID</v>
+      </c>
+      <c r="D827" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E827" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F827" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G827" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H827" s="8">
+        <f>VLOOKUP(SQL_LINEAGE!L827,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="I827" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Employee@EmployeeID</v>
+      </c>
+      <c r="J827" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K827" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L827" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="M827" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N827" s="8"/>
+      <c r="O827" s="8"/>
+      <c r="P827" s="8"/>
+      <c r="Q827" s="8"/>
+      <c r="R827" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="828" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B828" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F828,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="C828" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>DIM_Employee@EmpLastName</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F828" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G828" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H828" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L828,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="I828" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Employee@EmpLastName</v>
+      </c>
+      <c r="J828" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K828" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L828" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M828" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="829" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B829" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F829,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="C829" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>DIM_Employee@MngLastName</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F829" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G829" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H829" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L829,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="I829" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Employee@MngLastName</v>
+      </c>
+      <c r="J829" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K829" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L829" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M829" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="830" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B830" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F830,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="C830" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>DIM_Customer@CompanyName</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F830" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G830" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H830" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L830,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="I830" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Customer@CompanyName</v>
+      </c>
+      <c r="J830" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K830" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L830" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M830" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="831" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B831" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F831,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="C831" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>DIM_Customer@Country</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F831" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G831" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H831" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L831,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="I831" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Customer@Country</v>
+      </c>
+      <c r="J831" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K831" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L831" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M831" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="832" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B832" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F832,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="C832" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>DIM_Customer@City</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F832" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G832" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H832" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L832,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="I832" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Customer@City</v>
+      </c>
+      <c r="J832" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K832" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L832" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M832" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="833" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B833" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F833,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="C833" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>DIM_Customer@CustomerID</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F833" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G833" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H833" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L833,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="I833" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Customer@CustomerID</v>
+      </c>
+      <c r="J833" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K833" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L833" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M833" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="834" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B834" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F834,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="C834" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>DIM_Product@ProductID</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F834" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G834" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H834" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L834,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="I834" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Product@ProductID</v>
+      </c>
+      <c r="J834" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K834" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L834" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M834" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="835" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B835" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F835,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="C835" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>DIM_Product@ProductName</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F835" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G835" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H835" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L835,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="I835" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Product@ProductName</v>
+      </c>
+      <c r="J835" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K835" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L835" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M835" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="836" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B836" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F836,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="C836" s="2" t="str">
+        <f t="shared" ref="C836:C861" si="41">F836&amp;"@"&amp;G836</f>
+        <v>DIM_Product@ProductCategory</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F836" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G836" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H836" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L835,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="I836" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>DIM_Product@ProductCategory</v>
+      </c>
+      <c r="J836" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K836" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L836" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M836" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="837" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B837" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F837,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="C837" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Supplier@CompanyName</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F837" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G837" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H837" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L836,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="I837" s="2" t="str">
+        <f t="shared" ref="I837:I860" si="42">L837&amp;"@"&amp;M837</f>
+        <v>DIM_Supplier@CompanyName</v>
+      </c>
+      <c r="J837" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K837" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L837" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M837" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="838" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B838" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F838,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="C838" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Supplier@Country</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F838" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G838" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H838" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L837,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="I838" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>DIM_Supplier@Country</v>
+      </c>
+      <c r="J838" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K838" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L838" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M838" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="839" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B839" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F839,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="C839" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Supplier@SupplierID</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F839" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G839" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H839" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L838,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="I839" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>DIM_Supplier@SupplierID</v>
+      </c>
+      <c r="J839" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K839" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L839" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M839" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="840" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B840" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F840,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C840" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Time@TimeID</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F840" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G840" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H840" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L839,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="I840" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>DIM_Time@TimeID</v>
+      </c>
+      <c r="J840" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K840" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L840" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M840" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="841" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B841" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F841,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C841" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Time@Date</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F841" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G841" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H841" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L840,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I841" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>DIM_Time@Date</v>
+      </c>
+      <c r="J841" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K841" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L841" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M841" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="842" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B842" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F842,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C842" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Time@Year</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F842" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G842" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H842" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L841,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I842" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>DIM_Time@Year</v>
+      </c>
+      <c r="J842" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K842" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L842" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M842" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="843" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B843" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F843,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C843" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Time@Quarter</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F843" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G843" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H843" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L842,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I843" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>DIM_Time@Quarter</v>
+      </c>
+      <c r="J843" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K843" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L843" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M843" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="844" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B844" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F844,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C844" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Time@Month</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F844" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G844" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H844" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L843,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I844" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>DIM_Time@Month</v>
+      </c>
+      <c r="J844" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K844" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L844" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M844" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="845" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B845" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F845,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C845" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Time@Day</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F845" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G845" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H845" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L844,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I845" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>DIM_Time@Day</v>
+      </c>
+      <c r="J845" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K845" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L845" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M845" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="846" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B846" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F846,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C846" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@ProductID</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F846" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G846" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H846" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L845,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I846" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>FCT_Order@ProductID</v>
+      </c>
+      <c r="J846" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K846" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L846" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M846" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="847" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B847" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F847,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C847" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@Price</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F847" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G847" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H847" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L846,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I847" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>FCT_Order@Price</v>
+      </c>
+      <c r="J847" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K847" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L847" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M847" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="848" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B848" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F848,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C848" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@Quantity</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F848" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G848" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H848" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L847,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I848" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>FCT_Order@Quantity</v>
+      </c>
+      <c r="J848" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K848" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L848" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M848" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="849" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B849" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F849,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C849" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@Discount</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F849" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G849" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H849" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L848,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I849" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>FCT_Order@Discount</v>
+      </c>
+      <c r="J849" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K849" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L849" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M849" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="850" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B850" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F850,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C850" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@OrderID</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F850" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G850" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H850" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L849,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I850" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>FCT_Order@OrderID</v>
+      </c>
+      <c r="J850" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K850" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L850" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M850" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="851" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B851" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F851,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C851" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@CustomerID</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F851" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G851" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H851" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L850,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I851" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>FCT_Order@CustomerID</v>
+      </c>
+      <c r="J851" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K851" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L851" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M851" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="852" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B852" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F852,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C852" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@EmployeeID</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F852" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G852" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H852" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L851,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I852" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>FCT_Order@EmployeeID</v>
+      </c>
+      <c r="J852" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K852" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L852" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M852" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="853" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B853" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F853,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C853" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@SupplierID</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F853" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G853" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H853" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L852,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I853" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>FCT_Order@SupplierID</v>
+      </c>
+      <c r="J853" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K853" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L853" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M853" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="854" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B854" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F854,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C854" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@TimeID</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F854" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G854" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H854" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L853,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I854" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>FCT_Order@TimeID</v>
+      </c>
+      <c r="J854" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K854" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L854" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M854" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="855" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B855" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F855,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C855" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Time@Date</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F855" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G855" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H855" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L854,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I855" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>@Latest_Month</v>
+      </c>
+      <c r="J855" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K855" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L855" s="10"/>
+      <c r="M855" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="856" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B856" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F856,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C856" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Time@Date</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F856" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G856" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H856" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L855,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I856" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>@Latest_Year</v>
+      </c>
+      <c r="J856" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K856" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L856" s="10"/>
+      <c r="M856" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="857" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B857" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F857,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C857" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Time@Date</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F857" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G857" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H857" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L856,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I857" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>@Latest_Quarter</v>
+      </c>
+      <c r="J857" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K857" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L857" s="10"/>
+      <c r="M857" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="858" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B858" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F858,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C858" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Time@Date</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F858" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G858" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H858" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L857,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I858" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>@Latest_Date</v>
+      </c>
+      <c r="J858" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K858" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L858" s="10"/>
+      <c r="M858" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="859" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B859" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F859,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="C859" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>DIM_Customer@Country</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F859" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G859" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H859" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L858,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I859" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>DIM_Customer@Country</v>
+      </c>
+      <c r="J859" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K859" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L859" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M859" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="860" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B860" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F860,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C860" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@Price</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F860" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G860" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H860" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L859,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="I860" s="2" t="str">
+        <f t="shared" ref="I860:I876" si="43">L860&amp;"@"&amp;M860</f>
+        <v>@Total_Price</v>
+      </c>
+      <c r="J860" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K860" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L860" s="10"/>
+      <c r="M860" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="861" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B861" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F861,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C861" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>FCT_Order@Price</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F861" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G861" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H861" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L860,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I861" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>@Average_Price</v>
+      </c>
+      <c r="J861" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K861" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L861" s="10"/>
+      <c r="M861" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="862" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B862" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F862,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C862" s="2" t="str">
+        <f t="shared" ref="C862:C876" si="44">F862&amp;"@"&amp;G862</f>
+        <v>FCT_Order@ProductID</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F862" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G862" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H862" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L861,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I862" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>@Number_Of_Products</v>
+      </c>
+      <c r="J862" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K862" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L862" s="10"/>
+      <c r="M862" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="863" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B863" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F863,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C863" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@Discount</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F863" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G863" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H863" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L862,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I863" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>@Total_Discount_Amount</v>
+      </c>
+      <c r="J863" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K863" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L863" s="10"/>
+      <c r="M863" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="864" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B864" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F864,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C864" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@Price</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F864" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G864" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H864" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L863,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I864" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>@Total_Discount_Amount</v>
+      </c>
+      <c r="J864" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K864" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L864" s="10"/>
+      <c r="M864" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="865" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B865" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F865,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C865" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@Quantity</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F865" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G865" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H865" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L864,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I865" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>@Minimum_Quantity</v>
+      </c>
+      <c r="J865" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K865" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L865" s="10"/>
+      <c r="M865" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="866" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B866" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F866,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C866" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@EmployeeID</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F866" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G866" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H866" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L865,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I866" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>FCT_Order@EmployeeID</v>
+      </c>
+      <c r="J866" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K866" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L866" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M866" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="867" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B867" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F867,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="C867" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>DIM_Employee@EmpLastName</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F867" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G867" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H867" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L866,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I867" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>DIM_Employee@EmpLastName</v>
+      </c>
+      <c r="J867" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K867" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L867" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M867" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="868" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B868" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F868,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C868" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@Quantity</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F868" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G868" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H868" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L867,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="I868" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>@Total_Product_Quantity</v>
+      </c>
+      <c r="J868" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K868" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L868" s="10"/>
+      <c r="M868" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="869" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B869" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F869,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C869" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@EmployeeID</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F869" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G869" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H869" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L868,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I869" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>FCT_Order@EmployeeID</v>
+      </c>
+      <c r="J869" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K869" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L869" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M869" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="870" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B870" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F870,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="C870" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>DIM_Employee@EmpLastName</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F870" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G870" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H870" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L869,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I870" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>DIM_Employee@EmpLastName</v>
+      </c>
+      <c r="J870" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K870" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L870" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M870" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="871" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B871" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F871,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C871" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@Price</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F871" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G871" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H871" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L870,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="I871" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>@Total_Order_Price</v>
+      </c>
+      <c r="J871" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K871" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L871" s="10"/>
+      <c r="M871" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="872" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B872" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F872,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C872" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@Quantity</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F872" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G872" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H872" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L871,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I872" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>@Total_Order_Price</v>
+      </c>
+      <c r="J872" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K872" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L872" s="10"/>
+      <c r="M872" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="873" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B873" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F873,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C873" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@EmployeeID</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F873" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G873" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H873" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L872,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I873" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>FCT_Order@EmployeeID</v>
+      </c>
+      <c r="J873" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K873" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L873" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M873" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="874" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B874" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F874,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="C874" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>DIM_Employee@EmpLastName</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F874" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G874" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H874" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L873,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="I874" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>DIM_Employee@EmpLastName</v>
+      </c>
+      <c r="J874" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K874" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L874" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M874" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="875" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B875" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F875,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C875" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@CustomerID</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F875" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G875" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H875" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!L874,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="I875" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>@Number_Unique_Customers</v>
+      </c>
+      <c r="J875" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K875" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L875" s="10"/>
+      <c r="M875" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="876" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B876" s="2">
+        <f>VLOOKUP(SQL_LINEAGE!F876,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C876" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>FCT_Order@OrderID</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F876" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G876" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H876" s="2" t="e">
+        <f>VLOOKUP(SQL_LINEAGE!L875,SQL_LINEAGE_LABELS!$C$1:$D$999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I876" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>@Number_Orders</v>
+      </c>
+      <c r="J876" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K876" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L876" s="10"/>
+      <c r="M876" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -46174,10 +49117,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD88CCD7-C21C-486A-9478-C09BB5CBA6BC}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46957,18 +49900,155 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="D56" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="D57" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="D58" s="5">
         <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D59" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D60" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D61" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D62" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D63" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="5">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -46994,6 +50074,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C62DB221FDCFA7469315E52A99248468" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a4b7b9417758175a3197062c1e9484c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="757fdb00-ad05-45d6-9096-306e7ca3eb9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbe3202431c57f0f1e6b96cc39afc71d" ns3:_="">
     <xsd:import namespace="757fdb00-ad05-45d6-9096-306e7ca3eb9f"/>
@@ -47157,22 +50252,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD9A43C0-19CE-4F8E-8785-8744C71D4B93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="757fdb00-ad05-45d6-9096-306e7ca3eb9f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5542AFC4-889F-4E0B-9549-938C043F49F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B402AA0-FA6B-4C36-93BE-35C322F0EC0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47188,28 +50292,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5542AFC4-889F-4E0B-9549-938C043F49F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD9A43C0-19CE-4F8E-8785-8744C71D4B93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="757fdb00-ad05-45d6-9096-306e7ca3eb9f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Lineage-Files/SQL_LINEAGE.xlsx
+++ b/Lineage-Files/SQL_LINEAGE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ErwinSiegers\Documents\GitHub\sql-code-parser\Lineage-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ErwinSiegers\Documents\Clients\NN\sankey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF5B239-B748-4CDB-8164-471483D7A72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAF44F9-A0DC-43AF-BFA1-F3449A6B99F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{2E6AC758-1CC8-4CE1-825F-5AF038431A36}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8573" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8585" uniqueCount="254">
   <si>
     <t>ROW_ID</t>
   </si>
@@ -4743,7 +4743,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1391EEC-76B0-4454-BF1C-444529905F5F}" name="Draaitabel1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1391EEC-76B0-4454-BF1C-444529905F5F}" name="Draaitabel1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -5312,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3FDA18-BDC6-43FB-89D1-25C6B7F2C85D}">
   <dimension ref="A1:S859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G436" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N446" sqref="N446"/>
+    <sheetView tabSelected="1" topLeftCell="A813" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B859" sqref="B859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -50808,9 +50808,9 @@
       <c r="G835" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H835" s="8" t="e">
+      <c r="H835" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J835,SQL_LINEAGE!L835),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>328</v>
       </c>
       <c r="I835" s="8" t="str">
         <f t="shared" si="34"/>
@@ -50868,9 +50868,9 @@
       <c r="G836" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H836" s="2" t="e">
+      <c r="H836" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J836,SQL_LINEAGE!L836),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>328</v>
       </c>
       <c r="I836" s="2" t="str">
         <f t="shared" si="34"/>
@@ -50925,9 +50925,9 @@
       <c r="G837" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H837" s="2" t="e">
+      <c r="H837" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J837,SQL_LINEAGE!L837),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>328</v>
       </c>
       <c r="I837" s="2" t="str">
         <f t="shared" si="34"/>
@@ -50982,9 +50982,9 @@
       <c r="G838" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H838" s="2" t="e">
+      <c r="H838" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J838,SQL_LINEAGE!L838),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>328</v>
       </c>
       <c r="I838" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51039,9 +51039,9 @@
       <c r="G839" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H839" s="2" t="e">
+      <c r="H839" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J839,SQL_LINEAGE!L839),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>329</v>
       </c>
       <c r="I839" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51094,8 +51094,9 @@
       <c r="G840" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="H840" s="13" t="e">
-        <v>#N/A</v>
+      <c r="H840" s="2">
+        <f>VLOOKUP(_xlfn.CONCAT(J840,SQL_LINEAGE!L840),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
+        <v>329</v>
       </c>
       <c r="I840" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51150,9 +51151,9 @@
       <c r="G841" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H841" s="2" t="e">
+      <c r="H841" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J841,SQL_LINEAGE!L841),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>329</v>
       </c>
       <c r="I841" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51207,9 +51208,9 @@
       <c r="G842" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H842" s="2" t="e">
+      <c r="H842" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J842,SQL_LINEAGE!L842),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>329</v>
       </c>
       <c r="I842" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51264,9 +51265,9 @@
       <c r="G843" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H843" s="2" t="e">
+      <c r="H843" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J843,SQL_LINEAGE!L843),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>329</v>
       </c>
       <c r="I843" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51321,9 +51322,9 @@
       <c r="G844" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H844" s="2" t="e">
+      <c r="H844" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J844,SQL_LINEAGE!L844),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>329</v>
       </c>
       <c r="I844" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51378,9 +51379,9 @@
       <c r="G845" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H845" s="2" t="e">
+      <c r="H845" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J845,SQL_LINEAGE!L845),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>329</v>
       </c>
       <c r="I845" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51435,9 +51436,9 @@
       <c r="G846" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H846" s="2" t="e">
+      <c r="H846" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J846,SQL_LINEAGE!L846),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>329</v>
       </c>
       <c r="I846" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51492,9 +51493,9 @@
       <c r="G847" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H847" s="2" t="e">
+      <c r="H847" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J847,SQL_LINEAGE!L847),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>330</v>
       </c>
       <c r="I847" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51547,9 +51548,9 @@
       <c r="G848" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H848" s="2" t="e">
+      <c r="H848" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J848,SQL_LINEAGE!L848),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>330</v>
       </c>
       <c r="I848" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51602,9 +51603,9 @@
       <c r="G849" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H849" s="2" t="e">
+      <c r="H849" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J849,SQL_LINEAGE!L849),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>330</v>
       </c>
       <c r="I849" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51659,9 +51660,9 @@
       <c r="G850" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H850" s="2" t="e">
+      <c r="H850" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J850,SQL_LINEAGE!L850),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>331</v>
       </c>
       <c r="I850" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51714,9 +51715,9 @@
       <c r="G851" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H851" s="2" t="e">
+      <c r="H851" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J851,SQL_LINEAGE!L851),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>331</v>
       </c>
       <c r="I851" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51769,9 +51770,9 @@
       <c r="G852" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H852" s="2" t="e">
+      <c r="H852" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J852,SQL_LINEAGE!L852),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>331</v>
       </c>
       <c r="I852" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51826,9 +51827,9 @@
       <c r="G853" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H853" s="2" t="e">
+      <c r="H853" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J853,SQL_LINEAGE!L853),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>331</v>
       </c>
       <c r="I853" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51883,9 +51884,9 @@
       <c r="G854" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H854" s="2" t="e">
+      <c r="H854" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J854,SQL_LINEAGE!L854),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>332</v>
       </c>
       <c r="I854" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51938,9 +51939,9 @@
       <c r="G855" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H855" s="2" t="e">
+      <c r="H855" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J855,SQL_LINEAGE!L855),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>332</v>
       </c>
       <c r="I855" s="2" t="str">
         <f t="shared" si="34"/>
@@ -51993,9 +51994,9 @@
       <c r="G856" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H856" s="2" t="e">
+      <c r="H856" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J856,SQL_LINEAGE!L856),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>332</v>
       </c>
       <c r="I856" s="2" t="str">
         <f t="shared" si="34"/>
@@ -52050,9 +52051,9 @@
       <c r="G857" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H857" s="2" t="e">
+      <c r="H857" s="2">
         <f>VLOOKUP(_xlfn.CONCAT(J857,SQL_LINEAGE!L857),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>333</v>
       </c>
       <c r="I857" s="2" t="str">
         <f t="shared" si="34"/>
@@ -52106,8 +52107,9 @@
       <c r="G858" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H858" s="13" t="e">
-        <v>#N/A</v>
+      <c r="H858" s="2">
+        <f>VLOOKUP(_xlfn.CONCAT(J858,SQL_LINEAGE!L858),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
+        <v>333</v>
       </c>
       <c r="I858" s="2" t="str">
         <f t="shared" si="34"/>
@@ -52161,8 +52163,9 @@
       <c r="G859" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H859" s="13" t="e">
-        <v>#N/A</v>
+      <c r="H859" s="2">
+        <f>VLOOKUP(_xlfn.CONCAT(J859,SQL_LINEAGE!L859),SQL_LINEAGE_LABELS!$C$1:$D$994,2,FALSE)</f>
+        <v>333</v>
       </c>
       <c r="I859" s="2" t="str">
         <f t="shared" si="34"/>
@@ -52203,8 +52206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD88CCD7-C21C-486A-9478-C09BB5CBA6BC}">
   <dimension ref="A1:L594"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B314" sqref="B314"/>
+    <sheetView topLeftCell="A323" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D324" sqref="D324:D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57212,34 +57215,94 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330" s="1"/>
-      <c r="B330" s="5"/>
-      <c r="C330" s="2"/>
+      <c r="A330" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C330" s="10" t="str">
+        <f>_xlfn.CONCAT(A330,B330)</f>
+        <v>ReportLatest_Time</v>
+      </c>
+      <c r="D330" s="5">
+        <v>328</v>
+      </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" s="1"/>
-      <c r="B331" s="5"/>
-      <c r="C331" s="2"/>
+      <c r="A331" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B331" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C331" s="10" t="str">
+        <f t="shared" ref="C331:C335" si="6">_xlfn.CONCAT(A331,B331)</f>
+        <v>ReportCountry_Overview</v>
+      </c>
+      <c r="D331" s="5">
+        <v>329</v>
+      </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="1"/>
-      <c r="B332" s="5"/>
-      <c r="C332" s="2"/>
+      <c r="A332" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C332" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>ReportTop5_Employees_Per_Product_Latest_Quarter</v>
+      </c>
+      <c r="D332" s="5">
+        <v>330</v>
+      </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333" s="1"/>
-      <c r="B333" s="5"/>
-      <c r="C333" s="2"/>
+      <c r="A333" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C333" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>ReportTop5_Employees_Per_Order_Price_Latest_Month</v>
+      </c>
+      <c r="D333" s="5">
+        <v>331</v>
+      </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" s="1"/>
-      <c r="B334" s="5"/>
-      <c r="C334" s="2"/>
+      <c r="A334" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B334" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C334" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>ReportTop5_Employees_Per_Customer_Quantity_Latest_Year</v>
+      </c>
+      <c r="D334" s="5">
+        <v>332</v>
+      </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" s="1"/>
-      <c r="B335" s="5"/>
-      <c r="C335" s="2"/>
+      <c r="A335" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C335" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>ReportShipment_Overview</v>
+      </c>
+      <c r="D335" s="5">
+        <v>333</v>
+      </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
@@ -58632,21 +58695,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C62DB221FDCFA7469315E52A99248468" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a4b7b9417758175a3197062c1e9484c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="757fdb00-ad05-45d6-9096-306e7ca3eb9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbe3202431c57f0f1e6b96cc39afc71d" ns3:_="">
     <xsd:import namespace="757fdb00-ad05-45d6-9096-306e7ca3eb9f"/>
@@ -58810,31 +58858,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD9A43C0-19CE-4F8E-8785-8744C71D4B93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="757fdb00-ad05-45d6-9096-306e7ca3eb9f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5542AFC4-889F-4E0B-9549-938C043F49F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B402AA0-FA6B-4C36-93BE-35C322F0EC0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -58850,4 +58889,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5542AFC4-889F-4E0B-9549-938C043F49F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD9A43C0-19CE-4F8E-8785-8744C71D4B93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="757fdb00-ad05-45d6-9096-306e7ca3eb9f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>